--- a/documents/backlog v0.1.xlsx
+++ b/documents/backlog v0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALAJob\webshop\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALAJob\webshop\Corleone-Calzone\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36558C93-8CC6-491D-8A19-B6587DE4A4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CC393D-F93C-4D71-8A5E-CE20D990BA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F691E90-314C-40BB-AD7E-8523B5433D2D}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="D1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
